--- a/app/public/admin/src/excel/empty.xlsx
+++ b/app/public/admin/src/excel/empty.xlsx
@@ -24,28 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>A1</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -69,9 +58,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,13 +342,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>